--- a/src/Startup/Startup Performance.xlsx
+++ b/src/Startup/Startup Performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\GitHub\xamarin-forms-perf-playground\src\Startup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CD9274-0BFC-472E-95B4-1AC202AC21BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44907CDC-6A53-498D-B189-BA93ACA6AC95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Milliseconds</t>
   </si>
   <si>
-    <t>Sin XAMLC</t>
-  </si>
-  <si>
     <t>XAMLC</t>
   </si>
   <si>
@@ -56,6 +53,9 @@
   </si>
   <si>
     <t>AOT + Optimize LLVM</t>
+  </si>
+  <si>
+    <t>Without XAMLC</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Sin XAMLC</c:v>
+                  <c:v>Without XAMLC</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>XAMLC</c:v>
@@ -1379,7 +1379,7 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>845</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>720</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="6" spans="2:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>410</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <v>417</v>
